--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,52 +40,61 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
     <t>worst</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>terrifying</t>
+    <t>dangerous</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>hate</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>crazy</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>behind</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
-    <t>fake</t>
+    <t>[UNK]</t>
   </si>
   <si>
     <t>negative</t>
@@ -94,40 +103,40 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>first</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>new</t>
+    <t>true</t>
   </si>
   <si>
     <t>really</t>
@@ -136,19 +145,19 @@
     <t>netflix</t>
   </si>
   <si>
+    <t>watching</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>watching</t>
+    <t>…</t>
+  </si>
+  <si>
+    <t>’</t>
   </si>
   <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -517,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -578,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -596,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -620,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -628,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -646,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K4">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -670,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -678,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -696,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -728,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8939393939393939</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C6">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -746,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.7719298245614035</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -770,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -778,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8125</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -796,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.7586206896551724</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L7">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="M7">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -820,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -828,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -846,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.6842105263157895</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -870,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -878,13 +887,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -896,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.6666666666666666</v>
+        <v>0.55</v>
       </c>
       <c r="L9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -920,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -928,13 +937,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.631578947368421</v>
+        <v>0.725</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -946,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>0.6166666666666667</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -970,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -978,13 +987,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -996,19 +1005,19 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11">
+        <v>0.4242424242424243</v>
+      </c>
+      <c r="L11">
         <v>14</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="L11">
-        <v>15</v>
-      </c>
       <c r="M11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1020,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1028,13 +1037,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5769230769230769</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1046,19 +1055,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.4166666666666667</v>
+        <v>0.375</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1070,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1078,13 +1087,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.572463768115942</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C13">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D13">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1096,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.375</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M13">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1120,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1128,13 +1137,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5652173913043478</v>
+        <v>0.6</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1146,19 +1155,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>0.2522768670309654</v>
+        <v>0.2550091074681239</v>
       </c>
       <c r="L14">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M14">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1170,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1178,13 +1187,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5319148936170213</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1196,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>0.2203389830508475</v>
+        <v>0.1971830985915493</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1220,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1228,7 +1237,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -1246,19 +1255,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>0.1684210526315789</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="L16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M16">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1270,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1278,13 +1287,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4871794871794872</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1296,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>0.04814814814814815</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1320,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1328,38 +1337,38 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1538461538461539</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18">
+        <v>0.03519061583577713</v>
+      </c>
+      <c r="L18">
         <v>12</v>
       </c>
-      <c r="D18">
+      <c r="M18">
         <v>12</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>66</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18">
-        <v>0.0466867469879518</v>
-      </c>
-      <c r="L18">
-        <v>31</v>
-      </c>
-      <c r="M18">
-        <v>31</v>
-      </c>
       <c r="N18">
         <v>1</v>
       </c>
@@ -1370,21 +1379,45 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>633</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:17">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>14</v>
+      </c>
       <c r="J19" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>0.04398826979472141</v>
+        <v>0.03162650602409638</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1396,21 +1429,45 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>326</v>
+        <v>643</v>
       </c>
     </row>
     <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>25</v>
+      </c>
       <c r="J20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20">
+        <v>0.02419354838709677</v>
+      </c>
+      <c r="L20">
         <v>42</v>
       </c>
-      <c r="K20">
-        <v>0.02597402597402598</v>
-      </c>
-      <c r="L20">
-        <v>16</v>
-      </c>
       <c r="M20">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1422,21 +1479,45 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>600</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.0436241610738255</v>
+      </c>
+      <c r="C21">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F21">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>285</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>0.02419354838709677</v>
+        <v>0.02304737516005122</v>
       </c>
       <c r="L21">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1448,21 +1529,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1694</v>
+        <v>763</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>0.02304737516005122</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1474,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>763</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
